--- a/data/trans_dic/P15B_tráfico-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P15B_tráfico-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1026158346350071</v>
+        <v>0.0952368570041268</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2252493494617213</v>
+        <v>0.2403009963650954</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1625752407777662</v>
+        <v>0.1571546598128178</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1237840816075688</v>
+        <v>0.1113229053998241</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0392670720386593</v>
+        <v>0.03900062046127771</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1725486279511015</v>
+        <v>0.1694257392265746</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1001449392800971</v>
+        <v>0.09692385417017167</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08312415841131726</v>
+        <v>0.07729321589281998</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09536022704002496</v>
+        <v>0.08821517145083456</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2293813072945667</v>
+        <v>0.2244590887734113</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1580269990185993</v>
+        <v>0.1464234450627322</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.121100619187765</v>
+        <v>0.1250130613418746</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5450096302830845</v>
+        <v>0.5647198709425724</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4564776231728303</v>
+        <v>0.4728433005985039</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3752492340137832</v>
+        <v>0.3639536175667126</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4030510355401832</v>
+        <v>0.3897564830265641</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2939934280569272</v>
+        <v>0.333430903857348</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3679303470420423</v>
+        <v>0.3623638097397517</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2880883109270327</v>
+        <v>0.2932870002065019</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3933539262571594</v>
+        <v>0.3835700433929009</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3529826949305359</v>
+        <v>0.3490207596210242</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.380007871764805</v>
+        <v>0.3793485677008177</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2850443554837816</v>
+        <v>0.2892713898822175</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3309055984246667</v>
+        <v>0.3295215068384866</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1961759628172715</v>
+        <v>0.1901540941781345</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09006783654346437</v>
+        <v>0.09619065979982275</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1025822978295102</v>
+        <v>0.0984022076329633</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1482201206117754</v>
+        <v>0.1524678564777834</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03383262674984431</v>
+        <v>0.0328341518210029</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08387292093165365</v>
+        <v>0.08331772967032221</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06224978448658766</v>
+        <v>0.06017067403909265</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08900775785601639</v>
+        <v>0.08619330135243938</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1446826475604206</v>
+        <v>0.14012462444406</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1065602725716085</v>
+        <v>0.09949887857410361</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1043753099495936</v>
+        <v>0.09714537093413141</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1361758421098781</v>
+        <v>0.137279254598425</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.509204458073957</v>
+        <v>0.502109330409951</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2621676210983785</v>
+        <v>0.2591950219422638</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3404829176153155</v>
+        <v>0.3302159065063424</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4400150858316042</v>
+        <v>0.426414268445482</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3077665620720093</v>
+        <v>0.3024046707795411</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2537638383242414</v>
+        <v>0.2590760740161643</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.27321519159817</v>
+        <v>0.2627165887279414</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2265414885035313</v>
+        <v>0.2256974558507505</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3604731015498351</v>
+        <v>0.3522284913393117</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2170772672015197</v>
+        <v>0.2172598697529839</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2608363695160105</v>
+        <v>0.2545132769030148</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2783877767166543</v>
+        <v>0.2807962593639839</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1114863815899186</v>
+        <v>0.1098640258992947</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1657075673404343</v>
+        <v>0.1705480540514842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06576628936861553</v>
+        <v>0.06440163580568496</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1743153834782814</v>
+        <v>0.176976484992408</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1887412605659928</v>
+        <v>0.1992625464190992</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07940379862382241</v>
+        <v>0.07842495679776659</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.114039558928262</v>
+        <v>0.1216575761980376</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1164788634967299</v>
+        <v>0.1086042515906266</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1787057780064721</v>
+        <v>0.1701788310791197</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1450717447086516</v>
+        <v>0.1440868649428202</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1113226421894849</v>
+        <v>0.1191599239986981</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.175396238213536</v>
+        <v>0.1695550024089929</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.383894239134709</v>
+        <v>0.3768698515856826</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3788687345065637</v>
+        <v>0.373014936322602</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2871434164682867</v>
+        <v>0.2791936888995442</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4338151828004836</v>
+        <v>0.4269202316212108</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6072315685982387</v>
+        <v>0.5902884158563086</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2702085829834091</v>
+        <v>0.2830823241238008</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3599715208325419</v>
+        <v>0.3720204416756265</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3036688172961708</v>
+        <v>0.2954356903672498</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3901833308915192</v>
+        <v>0.3944596943421247</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2898893002652104</v>
+        <v>0.2844476873374904</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2775804135971378</v>
+        <v>0.2844090485008013</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3486290163797057</v>
+        <v>0.3399932950378255</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3212699140194394</v>
+        <v>0.3109799267242133</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1907826554124084</v>
+        <v>0.1891656660542075</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.127260974641067</v>
+        <v>0.1503212295001526</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1440982866017595</v>
+        <v>0.1468576344836882</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08066412608888188</v>
+        <v>0.07696223358875499</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0639783666727663</v>
+        <v>0.05342305855624288</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2502917496982247</v>
+        <v>0.2550358122166282</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2761376771043115</v>
+        <v>0.2720001764741277</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1670003136853382</v>
+        <v>0.166148518602205</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08704577436649917</v>
+        <v>0.08549822433944818</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2394482823039497</v>
+        <v>0.2348528832143771</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7261457825008043</v>
+        <v>0.7167086629781053</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5112871744766959</v>
+        <v>0.4870924541440067</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5072572206589653</v>
+        <v>0.503887131212475</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.431954190969621</v>
+        <v>0.4353097980579541</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5719715191680611</v>
+        <v>0.5726873191666243</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3618375634801709</v>
+        <v>0.3769116381457333</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2054013740660581</v>
+        <v>0.2595531477366311</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5572060686893167</v>
+        <v>0.5402764234417857</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6273317652769581</v>
+        <v>0.6281332199336188</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3866008196536447</v>
+        <v>0.3853361866285268</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3121503818310785</v>
+        <v>0.3219924222077636</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4527066013002838</v>
+        <v>0.4487522626300421</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.243495350460175</v>
+        <v>0.2473978852353223</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2037974023150111</v>
+        <v>0.2092789886421664</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1587746467509209</v>
+        <v>0.1651287143577355</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2026383402465131</v>
+        <v>0.2077981740745277</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1383240537505718</v>
+        <v>0.1258845881417766</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1461049153984061</v>
+        <v>0.1438944939740971</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1148539786664153</v>
+        <v>0.1170547859459946</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1693224873647611</v>
+        <v>0.1701810265993844</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2159670866639493</v>
+        <v>0.214612166325015</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.18861832772566</v>
+        <v>0.1893631727369072</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1565798781512627</v>
+        <v>0.1521836491490819</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2028426721003373</v>
+        <v>0.2040839481526449</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4191168148749098</v>
+        <v>0.4187592931201684</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.315063571675555</v>
+        <v>0.3158724993836448</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2754630402402261</v>
+        <v>0.2830307515983867</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3364132668823666</v>
+        <v>0.3514563479281673</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.325309391234004</v>
+        <v>0.2981606821648516</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2496061502786301</v>
+        <v>0.2459688896807862</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2263265090856757</v>
+        <v>0.2261517659027354</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.279397094134187</v>
+        <v>0.284442176978678</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3476628726117936</v>
+        <v>0.3453598617982956</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2632303402139191</v>
+        <v>0.2680589733584697</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2359701214385141</v>
+        <v>0.2348701701215234</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2886340903021128</v>
+        <v>0.2940006233862454</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1939</v>
+        <v>1800</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17392</v>
+        <v>18554</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12093</v>
+        <v>11689</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5176</v>
+        <v>4655</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13887</v>
+        <v>13635</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6818</v>
+        <v>6599</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4038</v>
+        <v>3755</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4176</v>
+        <v>3863</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>36172</v>
+        <v>35396</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>22514</v>
+        <v>20861</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>10947</v>
+        <v>11301</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10301</v>
+        <v>10673</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35246</v>
+        <v>36510</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27912</v>
+        <v>27072</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16854</v>
+        <v>16298</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7319</v>
+        <v>8301</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>29611</v>
+        <v>29163</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19614</v>
+        <v>19968</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19110</v>
+        <v>18634</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15459</v>
+        <v>15285</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>59925</v>
+        <v>59821</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>40609</v>
+        <v>41212</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>29912</v>
+        <v>29787</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6751</v>
+        <v>6544</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8721</v>
+        <v>9314</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5140</v>
+        <v>4930</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7320</v>
+        <v>7529</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1030</v>
+        <v>999</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>6976</v>
+        <v>6930</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3097</v>
+        <v>2994</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6511</v>
+        <v>6305</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>9383</v>
+        <v>9087</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>19181</v>
+        <v>17910</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>10422</v>
+        <v>9700</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>16686</v>
+        <v>16822</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17524</v>
+        <v>17280</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25386</v>
+        <v>25098</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17059</v>
+        <v>16545</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21729</v>
+        <v>21058</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9367</v>
+        <v>9204</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>21106</v>
+        <v>21548</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>13593</v>
+        <v>13070</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16572</v>
+        <v>16510</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>23377</v>
+        <v>22842</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>39075</v>
+        <v>39108</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>26046</v>
+        <v>25414</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>34113</v>
+        <v>34408</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4922</v>
+        <v>4850</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11201</v>
+        <v>11529</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3088</v>
+        <v>3024</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13008</v>
+        <v>13207</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4808</v>
+        <v>5076</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5045</v>
+        <v>4983</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5718</v>
+        <v>6100</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6497</v>
+        <v>6058</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12442</v>
+        <v>11849</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>19023</v>
+        <v>18894</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>10809</v>
+        <v>11570</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>22872</v>
+        <v>22110</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16949</v>
+        <v>16638</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25610</v>
+        <v>25215</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13484</v>
+        <v>13111</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32373</v>
+        <v>31859</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15470</v>
+        <v>15038</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17167</v>
+        <v>17985</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18048</v>
+        <v>18652</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16938</v>
+        <v>16479</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>27166</v>
+        <v>27464</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>38013</v>
+        <v>37300</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>26952</v>
+        <v>27615</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>45462</v>
+        <v>44336</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7926</v>
+        <v>7672</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8258</v>
+        <v>8188</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3221</v>
+        <v>3804</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7794</v>
+        <v>7943</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>879</v>
+        <v>839</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1746</v>
+        <v>1458</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>12910</v>
+        <v>13154</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>9821</v>
+        <v>9674</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>11786</v>
+        <v>11726</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4156</v>
+        <v>4082</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>25302</v>
+        <v>24816</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17914</v>
+        <v>17681</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22131</v>
+        <v>21083</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12838</v>
+        <v>12753</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>23364</v>
+        <v>23545</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6232</v>
+        <v>6239</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9874</v>
+        <v>10286</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>4607</v>
+        <v>5822</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>28740</v>
+        <v>27866</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>22311</v>
+        <v>22340</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>27284</v>
+        <v>27195</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>14902</v>
+        <v>15372</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>47836</v>
+        <v>47418</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>29739</v>
+        <v>30215</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>58067</v>
+        <v>59629</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>31239</v>
+        <v>32490</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>44562</v>
+        <v>45697</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12685</v>
+        <v>11544</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>37180</v>
+        <v>36618</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>21869</v>
+        <v>22288</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>38790</v>
+        <v>38987</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>46181</v>
+        <v>45892</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>101741</v>
+        <v>102143</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>60621</v>
+        <v>58919</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>91076</v>
+        <v>91634</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>51188</v>
+        <v>51144</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>89770</v>
+        <v>90001</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>54198</v>
+        <v>55687</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>73981</v>
+        <v>77289</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>29832</v>
+        <v>27342</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>63519</v>
+        <v>62593</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>43094</v>
+        <v>43060</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>64007</v>
+        <v>65163</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>74342</v>
+        <v>73850</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>141987</v>
+        <v>144592</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>91358</v>
+        <v>90932</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>129597</v>
+        <v>132006</v>
       </c>
     </row>
     <row r="24">
